--- a/inputs-sequoia/solids_samples_filtered_list.xlsx
+++ b/inputs-sequoia/solids_samples_filtered_list.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0505-MOD-SOL</t>
+          <t>0506-ESP-SOL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -397,24 +397,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0506-ESP-SOL</t>
+          <t>0506-LOB-SOL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,24 +424,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0506-LOB-SOL</t>
+          <t>0506-WIN-SOL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -451,24 +451,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0506-UCD-SOL</t>
+          <t>0506-WOD-SOL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,24 +478,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0506-WIN-SOL</t>
+          <t>0507-TUR-SOL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0506-WOD-SOL</t>
+          <t>0516-ESP-SOL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -532,24 +532,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0507-TUR-SOL</t>
+          <t>0516-LOB-SOL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -559,24 +559,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0516-ESP-SOL</t>
+          <t>0516-WOD-SOL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -586,24 +586,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0516-LOB-SOL</t>
+          <t>0526-LOB-SOL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0516-MER-SOL</t>
+          <t>0526-WIN-SOL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -640,24 +640,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0516-MOD-SOL</t>
+          <t>0526-WOD-SOL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -667,24 +667,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0516-UCD-SOL</t>
+          <t>0606-ESP-SOL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -694,24 +694,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0516-WOD-SOL</t>
+          <t>0606-TUR-SOL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -721,24 +721,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0526-LOB-SOL</t>
+          <t>0606-WIN-SOL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -748,24 +748,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0526-MER-SOL</t>
+          <t>0606-WOD-SOL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -775,24 +775,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0526-MOD-SOL</t>
+          <t>0616-ESP-SOL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -802,24 +802,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0526-UCD-SOL</t>
+          <t>0616-LOB-SOL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0526-WIN-SOL</t>
+          <t>0616-TUR-SOL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -856,24 +856,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0526-WOD-SOL</t>
+          <t>0616-WIN-SOL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -883,24 +883,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0606-ESP-SOL</t>
+          <t>0616-WOD-SOL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -910,24 +910,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0606-MER-SOL</t>
+          <t>0627-ESP-SOL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -937,24 +937,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0606-MOD-SOL</t>
+          <t>0627-LOB-SOL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -964,24 +964,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0606-TUR-SOL</t>
+          <t>0627-TUR-SOL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0606-UCD-SOL</t>
+          <t>0627-WOD-SOL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1018,24 +1018,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0606-WIN-SOL</t>
+          <t>0707-ESP-SOL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1045,24 +1045,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0606-WOD-SOL</t>
+          <t>0707-LOB-SOL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1072,24 +1072,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0616-ESP-SOL</t>
+          <t>0707-WIN-SOL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1099,24 +1099,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0616-LOB-SOL</t>
+          <t>0707-WOD-SOL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1126,24 +1126,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0616-MER-SOL</t>
+          <t>0718-ESP-SOL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1153,24 +1153,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0616-MOD-SOL</t>
+          <t>0718-LOB-SOL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1180,24 +1180,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0616-TUR-SOL</t>
+          <t>0718-TUR-SOL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0616-UCD-SOL</t>
+          <t>0718-WIN-SOL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1234,24 +1234,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0616-WIN-SOL</t>
+          <t>0718-WOD-SOL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0616-WOD-SOL</t>
+          <t>0728-ESP-SOL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1288,24 +1288,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0627-ESP-SOL</t>
+          <t>0728-LOB-SOL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1315,24 +1315,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0627-LOB-SOL</t>
+          <t>0728-TUR-SOL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1342,24 +1342,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0627-MER-SOL</t>
+          <t>0728-WIN-SOL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1369,24 +1369,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0627-MOD-SOL</t>
+          <t>0728-WOD-SOL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1396,24 +1396,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0627-TUR-SOL</t>
+          <t>0809-ESP-SOL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1423,24 +1423,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0627-WOD-SOL</t>
+          <t>0809-LOB-SOL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1450,24 +1450,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0707-ESP-SOL</t>
+          <t>0809-TUR-SOL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1477,24 +1477,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0707-LOB-SOL</t>
+          <t>0809-WIN-SOL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,24 +1504,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0707-MER-SOL</t>
+          <t>0809-WOD-SOL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1531,24 +1531,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0707-MOD-SOL</t>
+          <t>0818-ESP-SOL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0707-UCD-SOL</t>
+          <t>0818-LOB-SOL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0707-WIN-SOL</t>
+          <t>0818-TUR-SOL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1612,24 +1612,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0707-WOD-SOL</t>
+          <t>0818-WIN-SOL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1639,24 +1639,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0718-ESP-SOL</t>
+          <t>0818-WOD-SOL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1666,24 +1666,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0718-LOB-SOL</t>
+          <t>0830-LOB-SOL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1710,7 +1710,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0718-MER-SOL</t>
+          <t>0830-TUR-SOL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1720,24 +1720,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0718-MOD-SOL</t>
+          <t>0830-WIN-SOL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1747,24 +1747,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0718-TUR-SOL</t>
+          <t>0830-WOD-SOL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1774,24 +1774,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0718-UCD-SOL</t>
+          <t>0831-ESP-SOL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1801,24 +1801,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0718-WIN-SOL</t>
+          <t>0908-ESP-SOL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1828,24 +1828,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0718-WOD-SOL</t>
+          <t>0908-LOB-SOL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0728-ESP-SOL</t>
+          <t>0908-TUR-SOL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1882,24 +1882,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0728-LOB-SOL</t>
+          <t>0908-WIN-SOL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1909,24 +1909,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0728-MER-SOL</t>
+          <t>0908-WOD-SOL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1936,24 +1936,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0728-MOD-SOL</t>
+          <t>0920-ESP-SOL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1963,24 +1963,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0728-TUR-SOL</t>
+          <t>0920-LOB-SOL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1990,24 +1990,24 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0728-UCD-SOL</t>
+          <t>0920-TUR-SOL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2017,24 +2017,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0728-WIN-SOL</t>
+          <t>0920-WIN-SOL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0728-WOD-SOL</t>
+          <t>0920-WOD-SOL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0809-ESP-SOL</t>
+          <t>0929-ESP-SOL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2115,7 +2115,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0809-LOB-SOL</t>
+          <t>0929-LOB-SOL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2142,7 +2142,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0809-MER-SOL</t>
+          <t>0929-TUR-SOL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2152,24 +2152,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0809-MOD-SOL</t>
+          <t>0929-WIN-SOL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2179,24 +2179,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0809-TUR-SOL</t>
+          <t>0929-WOD-SOL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2206,24 +2206,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0809-UCD-SOL</t>
+          <t>1011-ESP-SOL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2233,24 +2233,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0809-WIN-SOL</t>
+          <t>1011-LOB-SOL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2260,24 +2260,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0809-WOD-SOL</t>
+          <t>1011-TUR-SOL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2287,24 +2287,24 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0818-ESP-SOL</t>
+          <t>1011-WIN-SOL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2314,24 +2314,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0818-LOB-SOL</t>
+          <t>1011-WOD-SOL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2341,24 +2341,24 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0818-MER-SOL</t>
+          <t>1020-ESP-SOL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2368,24 +2368,24 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0818-MOD-SOL</t>
+          <t>1020-LOB-SOL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2395,24 +2395,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0818-TUR-SOL</t>
+          <t>1020-TUR-SOL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2439,7 +2439,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0818-UCD-SOL</t>
+          <t>1020-WIN-SOL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2449,24 +2449,24 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0818-WIN-SOL</t>
+          <t>1020-WOD-SOL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2476,24 +2476,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0818-WOD-SOL</t>
+          <t>1031-WOD-SOL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0830-LOB-SOL</t>
+          <t>1101-ESP-SOL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0830-MOD-SOL</t>
+          <t>1101-TUR-SOL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2557,24 +2557,24 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0830-TUR-SOL</t>
+          <t>1101-WIN-SOL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2584,24 +2584,24 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0830-UCD-SOL</t>
+          <t>1110-ESP-SOL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2611,24 +2611,24 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0830-WIN-SOL</t>
+          <t>1110-TUR-SOL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2638,24 +2638,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0830-WOD-SOL</t>
+          <t>1110-WIN-SOL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2665,24 +2665,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0831-ESP-SOL</t>
+          <t>1110-WOD-SOL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2692,24 +2692,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0908-ESP-SOL</t>
+          <t>1122-ESP-SOL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2736,7 +2736,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0908-LOB-SOL</t>
+          <t>1122-LOB-SOL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2763,7 +2763,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0908-MER-SOL</t>
+          <t>1122-TUR-SOL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2773,24 +2773,24 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0908-MOD-SOL</t>
+          <t>1122-WIN-SOL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2800,24 +2800,24 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0908-TUR-SOL</t>
+          <t>1122-WOD-SOL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2827,24 +2827,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0908-UCD-SOL</t>
+          <t>1130-ESP-SOL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2854,24 +2854,24 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0908-WIN-SOL</t>
+          <t>1130-WIN-SOL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2890,1464 +2890,6 @@
         </is>
       </c>
       <c r="E94" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>0908-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>0920-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>0920-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>0920-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0920-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>0920-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>0920-UCD-SOL</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>City of Davis</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>City of Davis - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>0920-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>0920-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>0929-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>0929-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>0929-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>0929-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>0929-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>0929-UCD-SOL</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>City of Davis</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>City of Davis - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>0929-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>0929-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>1011-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>1011-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>1011-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>1011-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>1011-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>1011-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>1011-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>1020-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>1020-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>1020-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>1020-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>1020-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>1020-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1020-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>1031-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>1101-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>1101-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>1101-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>1101-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>1101-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>1110-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>1110-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>1110-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>1110-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>1110-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>1110-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>1122-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>1122-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>1122-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>1122-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>1122-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>1122-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>1122-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>1130-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>1130-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>1130-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>1130-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
         <is>
           <t>Winters - Solids</t>
         </is>
